--- a/data/trans_orig/P14A19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF631170-4A1D-48ED-B6DE-711E834CCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20703683-68B1-4CAE-9884-B66FC97D4D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83B5B336-0034-49E0-9831-C03D760E9D3A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D89C72-E9BB-4CDB-9EAD-8787F8249B75}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="222">
   <si>
     <t>Población que recibe medicación o terapia por varices en las piernas en 2012 (Tasa respuesta: 4,83%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>33,43%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>66,57%</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>68,3%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -135,55 +135,55 @@
     <t>29,29%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -192,55 +192,55 @@
     <t>59,13%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>43,13%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>40,87%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -249,49 +249,49 @@
     <t>24,27%</t>
   </si>
   <si>
-    <t>68,45%</t>
+    <t>70,2%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>43,23%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>31,55%</t>
+    <t>29,8%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>56,77%</t>
   </si>
   <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -300,238 +300,244 @@
     <t>30,85%</t>
   </si>
   <si>
-    <t>72,17%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>39,23%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>39,47%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>64,92%</t>
   </si>
   <si>
     <t>49,25%</t>
   </si>
   <si>
-    <t>37,73%</t>
+    <t>38,29%</t>
   </si>
   <si>
     <t>60,71%</t>
@@ -540,145 +546,163 @@
     <t>41,02%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>71,05%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>43,28%</t>
   </si>
   <si>
-    <t>28,95%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>81,04%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>53,87%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>56,29%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,71%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0E02AE-A62E-4F6A-BDA1-777AD7AF3FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C56316F-B67D-41D9-980E-93C3CC7362BD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2052,7 +2076,7 @@
         <v>156</v>
       </c>
       <c r="I20" s="7">
-        <v>169403</v>
+        <v>169404</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>114</v>
@@ -2103,7 +2127,7 @@
         <v>278</v>
       </c>
       <c r="I21" s="7">
-        <v>299684</v>
+        <v>299685</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2153,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB3C113-E765-4A13-AD58-E88AE0DFFBC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818A5D2-EBB6-49C8-9C63-F49A63413297}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2438,7 +2462,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2447,13 +2471,13 @@
         <v>12291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2462,13 +2486,13 @@
         <v>15260</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2507,13 @@
         <v>3346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2498,13 +2522,13 @@
         <v>14340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2513,13 +2537,13 @@
         <v>17686</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,10 +2611,10 @@
         <v>7109</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -2602,13 +2626,13 @@
         <v>36619</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2617,13 +2641,13 @@
         <v>43729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2662,13 @@
         <v>1836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2653,13 +2677,13 @@
         <v>40598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -2668,13 +2692,13 @@
         <v>42433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2766,13 @@
         <v>4686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2757,13 +2781,13 @@
         <v>20963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2772,13 +2796,13 @@
         <v>25649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2817,13 @@
         <v>6736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2808,13 +2832,13 @@
         <v>12838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2823,13 +2847,13 @@
         <v>19574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2921,13 @@
         <v>4242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2912,13 +2936,13 @@
         <v>41421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2927,13 +2951,13 @@
         <v>45663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2972,13 @@
         <v>18136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2963,13 +2987,13 @@
         <v>35186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2978,13 +3002,13 @@
         <v>53322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3076,13 @@
         <v>22287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -3067,13 +3091,13 @@
         <v>112196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -3082,13 +3106,13 @@
         <v>134483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3127,13 @@
         <v>30054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -3118,13 +3142,13 @@
         <v>106062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -3133,13 +3157,13 @@
         <v>136116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20703683-68B1-4CAE-9884-B66FC97D4D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5459F46-BEC0-4054-B4DB-FCA0A2C6B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D89C72-E9BB-4CDB-9EAD-8787F8249B75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B14C2ED6-215E-4C9B-8AEB-899B9EC425CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -84,19 +84,19 @@
     <t>33,43%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,184 +114,184 @@
     <t>66,57%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>68,3%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>59,13%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>43,13%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>40,87%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>70,2%</t>
+    <t>70,41%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>43,23%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>29,59%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>56,77%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -300,409 +300,409 @@
     <t>30,85%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>75,08%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por varices en las piernas en 2016 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
     <t>38,78%</t>
   </si>
   <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
+    <t>64,8%</t>
   </si>
   <si>
     <t>49,25%</t>
   </si>
   <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
   </si>
   <si>
     <t>43,28%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
   </si>
   <si>
     <t>81,04%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>53,87%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C56316F-B67D-41D9-980E-93C3CC7362BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4259B07-6AF4-437D-A82C-E62C29C72566}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2177,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818A5D2-EBB6-49C8-9C63-F49A63413297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1674C4-DDF0-42AC-9D5E-4A4385949CD4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
